--- a/resouse/candidate.xlsx
+++ b/resouse/candidate.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28000" windowHeight="13160"/>
   </bookViews>
   <sheets>
-    <sheet name="职位候选人名单" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -65,82 +65,49 @@
     <t>评价维度N...</t>
   </si>
   <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
     <t>田忠</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422342158@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">422342158@qq.com </t>
   </si>
   <si>
     <t>Python工程师服务器端开发-AIGC领域</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>龙小天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422342159@qq.com </t>
+  </si>
+  <si>
+    <t>金融海外投资新媒体内容文案编辑运营</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
-    <t>龙小天</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422342159@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>金融海外投资新媒体内容文案编辑运营</t>
-  </si>
-  <si>
     <t>包涵</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422342160@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">422342160@qq.com </t>
   </si>
   <si>
     <t>C端产品经理-AIGC领域</t>
@@ -149,70 +116,19 @@
     <t xml:space="preserve">栾平 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422342161@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">422342161@qq.com </t>
   </si>
   <si>
     <t>高飞虎</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422342162@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">422342162@qq.com </t>
   </si>
   <si>
     <t>乔志天</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422342163@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">422342163@qq.com </t>
   </si>
 </sst>
 </file>
@@ -225,40 +141,33 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="10"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.5"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -266,14 +175,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -281,7 +190,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -289,7 +198,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -297,7 +206,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -305,7 +214,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -313,14 +222,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -328,7 +237,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -336,7 +245,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -344,14 +253,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -359,56 +268,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.75"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -605,12 +502,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -713,161 +625,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -921,7 +828,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -941,44 +848,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1005,15 +912,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1040,7 +946,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1052,131 +957,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1187,26 +1121,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
+  <sheetPr/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2" outlineLevelRow="6"/>
-  <cols>
-    <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" ht="20" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,148 +1155,330 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="16" spans="1:6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2001</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
         <v>1001</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2002</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5">
+        <v>1001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
         <v>1003</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="16" spans="1:6">
-      <c r="A4" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2">
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
         <v>1002</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="16" spans="1:6">
-      <c r="A5" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="16" spans="1:6">
-      <c r="A6" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1003</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="16" spans="1:6">
-      <c r="A7" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1002</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="422342158@qq.com "/>
-    <hyperlink ref="C3" r:id="rId1" display="422342159@qq.com "/>
-    <hyperlink ref="C4" r:id="rId1" display="422342160@qq.com "/>
-    <hyperlink ref="C5" r:id="rId1" display="422342161@qq.com "/>
-    <hyperlink ref="C6" r:id="rId1" display="422342162@qq.com "/>
-    <hyperlink ref="C7" r:id="rId1" display="422342163@qq.com "/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/resouse/candidate.xlsx
+++ b/resouse/candidate.xlsx
@@ -752,7 +752,9 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>72</v>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>

--- a/resouse/candidate.xlsx
+++ b/resouse/candidate.xlsx
@@ -713,7 +713,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
